--- a/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA64425-99B8-4BE0-9922-43F4B5658FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C325851-D9BB-45A8-9263-E94479B3DD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE0B35E6-B2EF-4075-AAE2-11F9C26E20AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D3EBDE5-C8F8-4A97-A9E6-933A68D67D81}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
   <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
+    <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>77,28%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,28 +134,28 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -173,198 +173,195 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
@@ -374,31 +371,31 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>73,73%</t>
   </si>
   <si>
-    <t>70,85%</t>
+    <t>70,71%</t>
   </si>
   <si>
     <t>77,06%</t>
@@ -407,40 +404,43 @@
     <t>78,65%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E7047B-D5D8-4A40-8F79-188C9F6086CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44955DCA-D8A9-4EB2-B3DD-3BB39D8D2E4D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1183,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,13 +1198,13 @@
         <v>239991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>634</v>
@@ -1213,13 +1213,13 @@
         <v>375427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>934</v>
@@ -1228,18 +1228,18 @@
         <v>615418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1251,13 +1251,13 @@
         <v>242427</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>229</v>
@@ -1266,13 +1266,13 @@
         <v>208410</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>428</v>
@@ -1281,13 +1281,13 @@
         <v>450837</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,13 +1302,13 @@
         <v>690620</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>1038</v>
@@ -1317,28 +1317,28 @@
         <v>735713</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>1661</v>
       </c>
       <c r="N10" s="7">
-        <v>1426333</v>
+        <v>1426332</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,13 +1353,13 @@
         <v>15083</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1368,13 +1368,13 @@
         <v>18433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -1383,13 +1383,13 @@
         <v>33515</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1419,13 +1419,13 @@
         <v>780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1434,13 +1434,13 @@
         <v>780</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1455,13 @@
         <v>948129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>1291</v>
@@ -1470,33 +1470,33 @@
         <v>963336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1508,13 +1508,13 @@
         <v>76293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>80</v>
@@ -1523,13 +1523,13 @@
         <v>68072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -1538,13 +1538,13 @@
         <v>144365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1559,13 @@
         <v>239022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>352</v>
@@ -1574,13 +1574,13 @@
         <v>260903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1589,13 +1589,13 @@
         <v>499926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1610,13 @@
         <v>9016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1625,13 +1625,13 @@
         <v>10454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1640,13 +1640,13 @@
         <v>19470</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1712,13 @@
         <v>324330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>443</v>
@@ -1727,13 +1727,13 @@
         <v>339430</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>761</v>
@@ -1742,13 +1742,13 @@
         <v>663761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
         <v>368674</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>377</v>
@@ -1780,13 +1780,13 @@
         <v>321529</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>700</v>
@@ -1795,13 +1795,13 @@
         <v>690203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>1115108</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>1944</v>
@@ -1831,13 +1831,13 @@
         <v>1319982</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>3051</v>
@@ -1846,13 +1846,13 @@
         <v>2435089</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>128</v>
@@ -1969,13 +1969,13 @@
         <v>1512450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>2368</v>
@@ -1984,13 +1984,13 @@
         <v>1678194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>3820</v>
@@ -1999,13 +1999,13 @@
         <v>3190643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C325851-D9BB-45A8-9263-E94479B3DD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC4258D-2F34-422D-88C1-0E62AF238DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D3EBDE5-C8F8-4A97-A9E6-933A68D67D81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67DBF543-2F84-4890-86F7-3ED3AF7F7D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44955DCA-D8A9-4EB2-B3DD-3BB39D8D2E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52788C62-17E2-49BE-88A6-A943EF42B9AF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC4258D-2F34-422D-88C1-0E62AF238DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BF2F1D-796C-462E-86B0-A4AABE9F4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67DBF543-2F84-4890-86F7-3ED3AF7F7D4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC4180AA-1EB7-4562-A7A6-F869147473E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>77,28%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,28 +134,28 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -173,12 +173,15 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
@@ -188,130 +191,136 @@
     <t>25,57%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>76,87%</t>
@@ -320,46 +329,40 @@
     <t>72,15%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>81,39%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -371,31 +374,31 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>73,73%</t>
   </si>
   <si>
-    <t>70,71%</t>
+    <t>70,85%</t>
   </si>
   <si>
     <t>77,06%</t>
@@ -404,43 +407,40 @@
     <t>78,65%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52788C62-17E2-49BE-88A6-A943EF42B9AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33CBE26-53E9-4BCC-9473-3868614CD757}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1183,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,13 +1198,13 @@
         <v>239991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>634</v>
@@ -1213,13 +1213,13 @@
         <v>375427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>934</v>
@@ -1228,18 +1228,18 @@
         <v>615418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1251,13 +1251,13 @@
         <v>242427</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>229</v>
@@ -1266,13 +1266,13 @@
         <v>208410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>428</v>
@@ -1281,13 +1281,13 @@
         <v>450837</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,13 +1302,13 @@
         <v>690620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>1038</v>
@@ -1317,28 +1317,28 @@
         <v>735713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>1661</v>
       </c>
       <c r="N10" s="7">
-        <v>1426332</v>
+        <v>1426333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,13 +1353,13 @@
         <v>15083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1368,13 +1368,13 @@
         <v>18433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -1383,13 +1383,13 @@
         <v>33515</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1419,13 +1419,13 @@
         <v>780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1434,13 +1434,13 @@
         <v>780</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1455,13 @@
         <v>948129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1291</v>
@@ -1470,33 +1470,33 @@
         <v>963336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1508,13 +1508,13 @@
         <v>76293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>80</v>
@@ -1523,13 +1523,13 @@
         <v>68072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -1538,13 +1538,13 @@
         <v>144365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1559,13 @@
         <v>239022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>352</v>
@@ -1574,13 +1574,13 @@
         <v>260903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1589,13 +1589,13 @@
         <v>499926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1610,13 @@
         <v>9016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1625,13 +1625,13 @@
         <v>10454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1640,13 +1640,13 @@
         <v>19470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1712,13 @@
         <v>324330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>443</v>
@@ -1727,13 +1727,13 @@
         <v>339430</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>761</v>
@@ -1742,13 +1742,13 @@
         <v>663761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
         <v>368674</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>377</v>
@@ -1780,13 +1780,13 @@
         <v>321529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>700</v>
@@ -1795,13 +1795,13 @@
         <v>690203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>1115108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>1944</v>
@@ -1831,13 +1831,13 @@
         <v>1319982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>3051</v>
@@ -1846,13 +1846,13 @@
         <v>2435089</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>128</v>
@@ -1969,13 +1969,13 @@
         <v>1512450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>2368</v>
@@ -1984,13 +1984,13 @@
         <v>1678194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>3820</v>
@@ -1999,13 +1999,13 @@
         <v>3190643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BF2F1D-796C-462E-86B0-A4AABE9F4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6BF33A8-D177-4DF8-B61B-3EE338847B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC4180AA-1EB7-4562-A7A6-F869147473E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DC205C01-9F58-456D-BCD1-A200291A0F88}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -71,73 +71,361 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -146,316 +434,34 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33CBE26-53E9-4BCC-9473-3868614CD757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01A300-35F5-4736-B235-B0E7C26EAB41}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -991,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>49954</v>
+        <v>48097</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,7 +1012,7 @@
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>45046</v>
+        <v>40399</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1021,7 +1027,7 @@
         <v>124</v>
       </c>
       <c r="N4" s="7">
-        <v>95001</v>
+        <v>88497</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1042,7 +1048,7 @@
         <v>240</v>
       </c>
       <c r="D5" s="7">
-        <v>185466</v>
+        <v>178319</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1057,7 +1063,7 @@
         <v>554</v>
       </c>
       <c r="I5" s="7">
-        <v>323365</v>
+        <v>291082</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1072,7 +1078,7 @@
         <v>794</v>
       </c>
       <c r="N5" s="7">
-        <v>508831</v>
+        <v>469401</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1093,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>4570</v>
+        <v>4460</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1108,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6272</v>
+        <v>5766</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1123,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>10843</v>
+        <v>10227</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1159,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1174,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1195,7 +1201,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1210,7 +1216,7 @@
         <v>634</v>
       </c>
       <c r="I8" s="7">
-        <v>375427</v>
+        <v>337934</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1225,7 +1231,7 @@
         <v>934</v>
       </c>
       <c r="N8" s="7">
-        <v>615418</v>
+        <v>568811</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1248,7 +1254,7 @@
         <v>199</v>
       </c>
       <c r="D9" s="7">
-        <v>242427</v>
+        <v>231247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1263,7 +1269,7 @@
         <v>229</v>
       </c>
       <c r="I9" s="7">
-        <v>208410</v>
+        <v>241966</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1278,7 +1284,7 @@
         <v>428</v>
       </c>
       <c r="N9" s="7">
-        <v>450837</v>
+        <v>473213</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1299,7 +1305,7 @@
         <v>623</v>
       </c>
       <c r="D10" s="7">
-        <v>690620</v>
+        <v>871194</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1314,7 +1320,7 @@
         <v>1038</v>
       </c>
       <c r="I10" s="7">
-        <v>735713</v>
+        <v>678160</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1329,7 +1335,7 @@
         <v>1661</v>
       </c>
       <c r="N10" s="7">
-        <v>1426333</v>
+        <v>1549354</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1350,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>15083</v>
+        <v>14692</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1365,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>18433</v>
+        <v>16474</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1380,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>33515</v>
+        <v>31166</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1416,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>78</v>
@@ -1431,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>80</v>
@@ -1440,7 +1446,7 @@
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,7 +1458,7 @@
         <v>834</v>
       </c>
       <c r="D13" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1467,7 +1473,7 @@
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1482,7 +1488,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1505,46 +1511,46 @@
         <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>76293</v>
+        <v>71009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>80</v>
       </c>
       <c r="I14" s="7">
-        <v>68072</v>
+        <v>61758</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>144365</v>
+        <v>132767</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,46 +1562,46 @@
         <v>244</v>
       </c>
       <c r="D15" s="7">
-        <v>239022</v>
+        <v>230585</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>352</v>
       </c>
       <c r="I15" s="7">
-        <v>260903</v>
+        <v>240922</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
       </c>
       <c r="N15" s="7">
-        <v>499926</v>
+        <v>471508</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,28 +1613,28 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>9016</v>
+        <v>8589</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>10454</v>
+        <v>9607</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>105</v>
@@ -1637,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>19470</v>
+        <v>18196</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>106</v>
@@ -1667,7 +1673,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1682,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1697,7 +1703,7 @@
         <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,7 +1715,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -1724,7 +1730,7 @@
         <v>443</v>
       </c>
       <c r="I18" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -1739,7 +1745,7 @@
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -1762,46 +1768,46 @@
         <v>323</v>
       </c>
       <c r="D19" s="7">
-        <v>368674</v>
+        <v>350354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>377</v>
       </c>
       <c r="I19" s="7">
-        <v>321529</v>
+        <v>344124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>700</v>
       </c>
       <c r="N19" s="7">
-        <v>690203</v>
+        <v>694477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,46 +1819,46 @@
         <v>1107</v>
       </c>
       <c r="D20" s="7">
-        <v>1115108</v>
+        <v>1280098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>1944</v>
       </c>
       <c r="I20" s="7">
-        <v>1319982</v>
+        <v>1210164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>3051</v>
       </c>
       <c r="N20" s="7">
-        <v>2435089</v>
+        <v>2490262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,46 +1870,46 @@
         <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>28668</v>
+        <v>27741</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>35160</v>
+        <v>31847</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
       </c>
       <c r="N21" s="7">
-        <v>63828</v>
+        <v>59588</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,37 +1930,37 @@
         <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,7 +1972,7 @@
         <v>1452</v>
       </c>
       <c r="D23" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -1981,7 +1987,7 @@
         <v>2368</v>
       </c>
       <c r="I23" s="7">
-        <v>1678194</v>
+        <v>1587534</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -1996,7 +2002,7 @@
         <v>3820</v>
       </c>
       <c r="N23" s="7">
-        <v>3190643</v>
+        <v>3245727</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2010,7 +2016,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
